--- a/duty/Дежурства 2024.xlsx
+++ b/duty/Дежурства 2024.xlsx
@@ -986,7 +986,7 @@
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.880000000000001"/>

--- a/duty/Дежурства 2024.xlsx
+++ b/duty/Дежурства 2024.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView windowWidth="22770" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -81,49 +82,49 @@
     <t>29.07-04.08</t>
   </si>
   <si>
-    <t xml:space="preserve">05.06- 11.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.08- 18.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.08- 25.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.08- 01.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02.09- 08.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09.09- 15.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.09- 22.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.09- 29.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.09- 06.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.10- 13.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.10- 20.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.10- 27.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.10- 03.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04.11- 10.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.11- 17.11</t>
+    <t>05.06- 11.08</t>
+  </si>
+  <si>
+    <t>12.08- 18.08</t>
+  </si>
+  <si>
+    <t>19.08- 25.08</t>
+  </si>
+  <si>
+    <t>26.08- 01.09</t>
+  </si>
+  <si>
+    <t>02.09- 08.09</t>
+  </si>
+  <si>
+    <t>09.09- 15.09</t>
+  </si>
+  <si>
+    <t>16.09- 22.09</t>
+  </si>
+  <si>
+    <t>23.09- 29.09</t>
+  </si>
+  <si>
+    <t>30.09- 06.10</t>
+  </si>
+  <si>
+    <t>07.10- 13.10</t>
+  </si>
+  <si>
+    <t>14.10- 20.10</t>
+  </si>
+  <si>
+    <t>21.10- 27.10</t>
+  </si>
+  <si>
+    <t>28.10- 03.11</t>
+  </si>
+  <si>
+    <t>04.11- 10.11</t>
+  </si>
+  <si>
+    <t>11.11- 17.11</t>
   </si>
   <si>
     <t>18.11-24.11</t>
@@ -216,40 +217,190 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
-    <font>
-      <sz val="11.000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13.500000"/>
+      <sz val="13.5"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.000000"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
       <color theme="1"/>
       <name val="Arial MT Std"/>
-    </font>
-    <font>
-      <sz val="11.000000"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
       <color rgb="FF1A1A1A"/>
       <name val="Arial MT Std"/>
-    </font>
-    <font>
-      <sz val="11.000000"/>
-      <color theme="1" tint="0"/>
-      <name val="Arial MT Std"/>
-    </font>
-    <font>
-      <sz val="13.500000"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,24 +421,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="0"/>
-        <bgColor theme="0" tint="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0"/>
-        <bgColor theme="1" tint="0"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -302,18 +639,18 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -325,32 +662,45 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="none"/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="none"/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -365,7 +715,20 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -380,108 +743,368 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
       <right style="thin">
-        <color theme="1"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color theme="1"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -491,291 +1114,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -982,36 +1322,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:AR14"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.880000000000001"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="16.421875"/>
-    <col customWidth="1" min="3" max="3" width="24.7109375"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="10.7734375"/>
-    <col customWidth="1" min="5" max="6" width="11.00390625"/>
-    <col customWidth="1" min="7" max="7" width="11.57421875"/>
-    <col customWidth="1" min="8" max="8" width="11.7109375"/>
-    <col customWidth="1" min="9" max="9" width="11.140625"/>
-    <col customWidth="1" min="10" max="10" width="11.8515625"/>
-    <col customWidth="1" min="11" max="11" width="11.421875"/>
-    <col customWidth="1" min="12" max="12" width="10.421875"/>
-    <col customWidth="1" min="13" max="13" width="10.7109375"/>
-    <col customWidth="1" min="14" max="14" width="11.421875"/>
-    <col customWidth="1" min="15" max="15" width="10.7109375"/>
-    <col bestFit="1" customWidth="1" min="16" max="22" width="10.421875"/>
+    <col min="2" max="2" width="16.4190476190476" customWidth="1"/>
+    <col min="3" max="3" width="24.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="10.7714285714286" customWidth="1"/>
+    <col min="5" max="5" width="11" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="11.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="11.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="11.847619047619" customWidth="1"/>
+    <col min="11" max="11" width="11.4190476190476" customWidth="1"/>
+    <col min="12" max="12" width="10.4190476190476" customWidth="1"/>
+    <col min="13" max="13" width="10.7142857142857" customWidth="1"/>
+    <col min="14" max="14" width="11.4190476190476" customWidth="1"/>
+    <col min="15" max="15" width="10.7142857142857" customWidth="1"/>
+    <col min="16" max="22" width="10.4190476190476" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="27.75">
+    <row r="3" ht="30" spans="1:44">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1071,145 +1417,145 @@
       <c r="U3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Y3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AB3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AC3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AF3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AG3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AH3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AI3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AJ3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AK3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AL3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AM3" s="6" t="s">
+      <c r="AM3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AN3" s="6" t="s">
+      <c r="AN3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AO3" s="6" t="s">
+      <c r="AO3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AP3" s="6" t="s">
+      <c r="AP3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AQ3" s="6" t="s">
+      <c r="AQ3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AR3" s="7" t="s">
+      <c r="AR3" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" ht="15.75">
+    <row r="4" ht="18" spans="1:44">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
     </row>
-    <row r="5" ht="15.75">
+    <row r="5" ht="18" spans="1:44">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1218,7 +1564,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="10"/>
+      <c r="T5" s="6"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -1244,24 +1590,24 @@
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
     </row>
-    <row r="6" ht="15.75">
+    <row r="6" ht="18" spans="1:44">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1271,8 +1617,8 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -1296,326 +1642,326 @@
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
     </row>
-    <row r="7" ht="15.75">
+    <row r="7" ht="18" spans="1:44">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="13"/>
+      <c r="Q7" s="9"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="13"/>
+      <c r="X7" s="9"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
-      <c r="AE7" s="13"/>
+      <c r="AE7" s="9"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="13"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="9"/>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
     </row>
-    <row r="8" ht="15.75">
+    <row r="8" ht="18" spans="1:44">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="13"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="13"/>
+      <c r="R8" s="9"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="13"/>
+      <c r="Y8" s="9"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-      <c r="AF8" s="13"/>
+      <c r="AF8" s="9"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
-      <c r="AM8" s="14"/>
-      <c r="AN8" s="13"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="9"/>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
     </row>
-    <row r="9" ht="15.75">
+    <row r="9" ht="18" spans="1:44">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="13"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="13"/>
+      <c r="S9" s="9"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="13"/>
+      <c r="Z9" s="9"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="13"/>
+      <c r="AG9" s="9"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="13"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="9"/>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
     </row>
-    <row r="10" ht="15.75">
+    <row r="10" ht="18" spans="1:44">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="13"/>
+      <c r="M10" s="9"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="13"/>
+      <c r="T10" s="9"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="13"/>
+      <c r="AA10" s="9"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
-      <c r="AH10" s="13"/>
+      <c r="AH10" s="9"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
-      <c r="AO10" s="14"/>
-      <c r="AP10" s="13"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="9"/>
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
     </row>
-    <row r="11" ht="15.75">
-      <c r="A11" s="15">
+    <row r="11" ht="18" spans="1:44">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="13"/>
+      <c r="N11" s="9"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="13"/>
+      <c r="U11" s="9"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-      <c r="AB11" s="13"/>
+      <c r="AB11" s="9"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
-      <c r="AI11" s="13"/>
+      <c r="AI11" s="9"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
-      <c r="AP11" s="14"/>
-      <c r="AQ11" s="13"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="9"/>
       <c r="AR11" s="1"/>
     </row>
-    <row r="12" ht="15.75">
+    <row r="12" ht="18" spans="1:44">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="17"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="13"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="13"/>
+      <c r="V12" s="9"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
-      <c r="AC12" s="13"/>
+      <c r="AC12" s="9"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
-      <c r="AJ12" s="13"/>
+      <c r="AJ12" s="9"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
       <c r="AP12" s="1"/>
-      <c r="AQ12" s="14"/>
-      <c r="AR12" s="13"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="9"/>
     </row>
-    <row r="13" ht="15.75">
+    <row r="13" ht="18" spans="1:44">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="1"/>
@@ -1630,46 +1976,71 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="13"/>
+      <c r="P13" s="9"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="13"/>
+      <c r="W13" s="9"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="21"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="21"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="18"/>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
-      <c r="AR13" s="14"/>
+      <c r="AR13" s="11"/>
     </row>
-    <row r="14" ht="15.75">
+    <row r="14" ht="18" spans="1:44">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="13" t="s">
         <v>65</v>
       </c>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
@@ -1678,36 +2049,17 @@
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="23"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="20"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
     </row>
-    <row r="15" ht="14.25">
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="25"/>
-    </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageMargins left="0.700787401574803" right="0.700787401574803" top="0.751968503937008" bottom="0.751968503937008" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/duty/Дежурства 2024.xlsx
+++ b/duty/Дежурства 2024.xlsx
@@ -219,10 +219,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -271,13 +271,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -286,6 +279,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -293,112 +399,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -433,187 +433,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,15 +761,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -789,7 +780,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,159 +835,153 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">

--- a/duty/Дежурства 2024.xlsx
+++ b/duty/Дежурства 2024.xlsx
@@ -220,8 +220,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
@@ -234,26 +234,153 @@
     </font>
     <font>
       <sz val="13.5"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13.5"/>
-      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial MT Std"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="13.5"/>
+      <sz val="11"/>
       <color rgb="FF1A1A1A"/>
       <name val="Arial MT Std"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="13.5"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -264,97 +391,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -362,45 +398,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,37 +432,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor theme="1" tint="0.499984740745262"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,19 +606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,126 +618,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -663,6 +668,21 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -746,6 +766,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -780,7 +809,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,17 +829,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,182 +849,182 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1010,48 +1033,40 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1327,11 +1342,9 @@
   <dimension ref="A3:AR14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1357,64 +1370,64 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="V3" s="15" t="s">
@@ -1491,71 +1504,72 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
     </row>
     <row r="5" ht="18" spans="1:44">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1564,7 +1578,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="6"/>
+      <c r="T5" s="7"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -1594,20 +1608,20 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1617,8 +1631,8 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -1646,48 +1660,48 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="9"/>
+      <c r="Q7" s="10"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="9"/>
+      <c r="X7" s="10"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
-      <c r="AE7" s="9"/>
+      <c r="AE7" s="10"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="9"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="10"/>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
@@ -1698,49 +1712,49 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="10"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="9"/>
+      <c r="R8" s="10"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="9"/>
+      <c r="Y8" s="10"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-      <c r="AF8" s="9"/>
+      <c r="AF8" s="10"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="9"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="10"/>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
@@ -1750,51 +1764,51 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="9"/>
+      <c r="S9" s="10"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="9"/>
+      <c r="Z9" s="10"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="9"/>
+      <c r="AG9" s="10"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="1"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="10"/>
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
     </row>
@@ -1802,51 +1816,51 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="9"/>
+      <c r="M10" s="10"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="9"/>
+      <c r="T10" s="10"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="9"/>
+      <c r="AA10" s="10"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
-      <c r="AH10" s="9"/>
+      <c r="AH10" s="10"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
-      <c r="AO10" s="11"/>
-      <c r="AP10" s="9"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
     </row>
@@ -1854,114 +1868,114 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="9"/>
+      <c r="N11" s="10"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="9"/>
+      <c r="U11" s="10"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-      <c r="AB11" s="9"/>
+      <c r="AB11" s="10"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
-      <c r="AI11" s="9"/>
+      <c r="AI11" s="10"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="11"/>
-      <c r="AQ11" s="9"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
       <c r="AR11" s="1"/>
     </row>
     <row r="12" ht="18" spans="1:44">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="7"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="11"/>
+      <c r="K12" s="12"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="9"/>
+      <c r="O12" s="10"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="9"/>
+      <c r="V12" s="10"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
-      <c r="AC12" s="9"/>
+      <c r="AC12" s="10"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
-      <c r="AJ12" s="9"/>
+      <c r="AJ12" s="10"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
       <c r="AP12" s="1"/>
-      <c r="AQ12" s="11"/>
-      <c r="AR12" s="9"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="12"/>
     </row>
     <row r="13" ht="18" spans="1:44">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="1"/>
@@ -1976,14 +1990,14 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="9"/>
+      <c r="P13" s="10"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="9"/>
+      <c r="W13" s="10"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
@@ -2004,16 +2018,16 @@
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
-      <c r="AR13" s="11"/>
+      <c r="AR13" s="10"/>
     </row>
     <row r="14" ht="18" spans="1:44">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D14" s="1"/>
@@ -2049,7 +2063,7 @@
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
-      <c r="AL14" s="9"/>
+      <c r="AL14" s="10"/>
       <c r="AM14" s="20"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
